--- a/experimentalResults/DBpediaResults-upd.xlsx
+++ b/experimentalResults/DBpediaResults-upd.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cbobed\workingDir\git\PartMining\experimentalResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D8B823-8967-4D23-B855-531C09C036CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8667535-A4BA-44BE-A72D-17567C2E4637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,9 +31,6 @@
   </si>
   <si>
     <t>DBpedia 2014</t>
-  </si>
-  <si>
-    <t>DBPedia 2016-10</t>
   </si>
   <si>
     <t>rand 8</t>
@@ -69,13 +65,16 @@
   <si>
     <t>DBpedia2016-10</t>
   </si>
+  <si>
+    <t>DBpedia 2016-10</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -150,9 +149,9 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
-    <xf numFmtId="171" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="3" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2" applyFont="1"/>
@@ -174,6 +173,1202 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES" sz="2000" b="1"/>
+              <a:t>Compression Ratio - DBpedia</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" sz="2000" b="1" baseline="0"/>
+              <a:t> Datasets</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-ES" sz="2000" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rand 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DBpedia 3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DBpedia 2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DBpedia 2016-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.354172609433546</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.44038591702296398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.54956633219227602</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20F4-40C0-832B-6DF493AF7D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>part 8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DBpedia 3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DBpedia 2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DBpedia 2016-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.19094290971969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.34761511304227899</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.442927676754516</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-20F4-40C0-832B-6DF493AF7D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>rand 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DBpedia 3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DBpedia 2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DBpedia 2016-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$D$2:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28312874196846299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.345640912416327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.46136463962468299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-20F4-40C0-832B-6DF493AF7D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>part 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DBpedia 3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DBpedia 2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DBpedia 2016-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$E$2:$E$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.16716660291902499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14964393594299699</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.15343099315714301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-20F4-40C0-832B-6DF493AF7D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>reported SWJ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>DBpedia 3.6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DBpedia 2014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DBpedia 2016-10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$F$2:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.26300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.30599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-20F4-40C0-832B-6DF493AF7D4E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2128196992"/>
+        <c:axId val="2128192832"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2128196992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128192832"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2128192832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128196992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180750</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>165787</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9FE874-F5BA-4792-17B3-38993E075CDC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -441,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -456,22 +1651,22 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -522,7 +1717,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1">
         <v>0.54956633219227602</v>
@@ -545,59 +1740,59 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="H6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="J6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="F7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="J7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>10</v>
-      </c>
       <c r="L7" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>799</v>
@@ -635,7 +1830,7 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9">
         <v>268</v>
@@ -673,7 +1868,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>170</v>
@@ -712,5 +1907,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>